--- a/car inventory.xlsx
+++ b/car inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\excelProjects\car-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C95381-D040-4C87-831F-5CC321154D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1270BD4-6006-48CD-8022-E37F79C3D083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="465" windowWidth="15150" windowHeight="10980" xr2:uid="{3485CCED-B40B-4D66-B40D-797B42AE9D33}"/>
+    <workbookView xWindow="4230" yWindow="435" windowWidth="15150" windowHeight="10980" xr2:uid="{3485CCED-B40B-4D66-B40D-797B42AE9D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
   <si>
     <t>Car ID</t>
   </si>
@@ -366,6 +366,39 @@
   </si>
   <si>
     <t>FCS</t>
+  </si>
+  <si>
+    <t>Camrey</t>
+  </si>
+  <si>
+    <t>Elantra</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Camero</t>
+  </si>
+  <si>
+    <t>Corola</t>
+  </si>
+  <si>
+    <t>Civic</t>
+  </si>
+  <si>
+    <t>Odyssey</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Caravan</t>
+  </si>
+  <si>
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>Slivino</t>
   </si>
 </sst>
 </file>
@@ -752,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DEEBCC-21FA-4062-BDB9-3AD728E78D50}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -831,6 +864,10 @@
         <f>MID(A2,5,3)</f>
         <v>MTG</v>
       </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E53" si="0">VLOOKUP(D2,D$57:E$67,2)</f>
+        <v>Mustang</v>
+      </c>
       <c r="H2">
         <v>40326.800000000003</v>
       </c>
@@ -849,16 +886,20 @@
         <v>17</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B53" si="0">LEFT(A3,2)</f>
+        <f t="shared" ref="B3:B53" si="1">LEFT(A3,2)</f>
         <v>FD</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C53" si="1">VLOOKUP(B3,B$57:C$62,2)</f>
+        <f t="shared" ref="C3:C53" si="2">VLOOKUP(B3,B$57:C$62,2)</f>
         <v>Ford</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D53" si="2">MID(A3,5,3)</f>
+        <f t="shared" ref="D3:D53" si="3">MID(A3,5,3)</f>
         <v>MTG</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mustang</v>
       </c>
       <c r="H3">
         <v>44974.8</v>
@@ -878,16 +919,20 @@
         <v>20</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FD</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MTG</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mustang</v>
       </c>
       <c r="H4">
         <v>44946.5</v>
@@ -907,16 +952,20 @@
         <v>23</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FD</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MTG</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Mustang</v>
       </c>
       <c r="H5">
         <v>37558.800000000003</v>
@@ -936,16 +985,20 @@
         <v>25</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FD</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MTG</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mustang</v>
       </c>
       <c r="H6">
         <v>36438.5</v>
@@ -965,16 +1018,20 @@
         <v>26</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FD</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FCS</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Focus</v>
       </c>
       <c r="H7">
         <v>46311.4</v>
@@ -994,16 +1051,20 @@
         <v>28</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FD</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FCS</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Focus</v>
       </c>
       <c r="H8">
         <v>52229.5</v>
@@ -1023,16 +1084,20 @@
         <v>29</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FD</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FCS</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Focus</v>
       </c>
       <c r="H9">
         <v>35137</v>
@@ -1052,16 +1117,20 @@
         <v>31</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FD</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FCS</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Focus</v>
       </c>
       <c r="H10">
         <v>27637.1</v>
@@ -1081,16 +1150,20 @@
         <v>32</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FD</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FCS</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Focus</v>
       </c>
       <c r="H11">
         <v>27534.799999999999</v>
@@ -1110,16 +1183,20 @@
         <v>34</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FD</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FCS</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Focus</v>
       </c>
       <c r="H12">
         <v>19341.7</v>
@@ -1139,16 +1216,20 @@
         <v>36</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FD</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FCS</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Focus</v>
       </c>
       <c r="H13">
         <v>22521.599999999999</v>
@@ -1168,16 +1249,20 @@
         <v>38</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FD</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FCS</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Focus</v>
       </c>
       <c r="H14">
         <v>13682.9</v>
@@ -1197,16 +1282,20 @@
         <v>40</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GM</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>General Motors</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CMR</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Camero</v>
       </c>
       <c r="H15">
         <v>28464.799999999999</v>
@@ -1226,16 +1315,20 @@
         <v>42</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GM</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>General Motors</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CMR</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Camero</v>
       </c>
       <c r="H16">
         <v>19421.099999999999</v>
@@ -1255,16 +1348,20 @@
         <v>44</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GM</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>General Motors</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CMR</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Camero</v>
       </c>
       <c r="H17">
         <v>14289.6</v>
@@ -1284,16 +1381,20 @@
         <v>46</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GM</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>General Motors</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SLV</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Slivino</v>
       </c>
       <c r="H18">
         <v>31144.400000000001</v>
@@ -1313,16 +1414,20 @@
         <v>48</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GM</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>General Motors</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SLV</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Slivino</v>
       </c>
       <c r="H19">
         <v>83162.7</v>
@@ -1342,16 +1447,20 @@
         <v>49</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GM</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>General Motors</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SLV</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Slivino</v>
       </c>
       <c r="H20">
         <v>80685.8</v>
@@ -1371,16 +1480,20 @@
         <v>51</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TY</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toyota</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CAM</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Camrey</v>
       </c>
       <c r="H21">
         <v>114660.6</v>
@@ -1400,16 +1513,20 @@
         <v>53</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TY</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toyota</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CAM</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Camrey</v>
       </c>
       <c r="H22">
         <v>93382.6</v>
@@ -1429,16 +1546,20 @@
         <v>55</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TY</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toyota</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CAM</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Camrey</v>
       </c>
       <c r="H23">
         <v>85928</v>
@@ -1458,16 +1579,20 @@
         <v>56</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TY</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toyota</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CAM</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Camrey</v>
       </c>
       <c r="H24">
         <v>67829.100000000006</v>
@@ -1487,16 +1612,20 @@
         <v>57</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TY</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toyota</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CAM</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Camrey</v>
       </c>
       <c r="H25">
         <v>48114.2</v>
@@ -1516,16 +1645,20 @@
         <v>58</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TY</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toyota</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>COR</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Corola</v>
       </c>
       <c r="H26">
         <v>64467.4</v>
@@ -1545,16 +1678,20 @@
         <v>61</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TY</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toyota</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>COR</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Corola</v>
       </c>
       <c r="H27">
         <v>73444.399999999994</v>
@@ -1574,16 +1711,20 @@
         <v>62</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TY</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toyota</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>COR</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Corola</v>
       </c>
       <c r="H28">
         <v>17556.3</v>
@@ -1603,16 +1744,20 @@
         <v>63</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TY</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toyota</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>COR</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Corola</v>
       </c>
       <c r="H29">
         <v>29601.9</v>
@@ -1632,16 +1777,20 @@
         <v>64</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TY</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toyota</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CAM</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Camrey</v>
       </c>
       <c r="H30">
         <v>22128.2</v>
@@ -1661,16 +1810,20 @@
         <v>65</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CIV</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Civic</v>
       </c>
       <c r="H31">
         <v>82374</v>
@@ -1690,16 +1843,20 @@
         <v>66</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CIV</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Civic</v>
       </c>
       <c r="H32">
         <v>69891.899999999994</v>
@@ -1719,16 +1876,20 @@
         <v>67</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CIV</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Civic</v>
       </c>
       <c r="H33">
         <v>22573</v>
@@ -1748,16 +1909,20 @@
         <v>68</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CIV</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Civic</v>
       </c>
       <c r="H34">
         <v>33477.199999999997</v>
@@ -1777,16 +1942,20 @@
         <v>69</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CIV</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Civic</v>
       </c>
       <c r="H35">
         <v>30555.3</v>
@@ -1806,16 +1975,20 @@
         <v>70</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CIV</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Civic</v>
       </c>
       <c r="H36">
         <v>24513.200000000001</v>
@@ -1835,16 +2008,20 @@
         <v>71</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CIV</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Civic</v>
       </c>
       <c r="H37">
         <v>13867.6</v>
@@ -1864,16 +2041,20 @@
         <v>72</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODY</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Odyssey</v>
       </c>
       <c r="H38">
         <v>60389.5</v>
@@ -1893,16 +2074,20 @@
         <v>73</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODY</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Odyssey</v>
       </c>
       <c r="H39">
         <v>50854.1</v>
@@ -1922,16 +2107,20 @@
         <v>74</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODY</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Odyssey</v>
       </c>
       <c r="H40">
         <v>42504.6</v>
@@ -1951,16 +2140,20 @@
         <v>102</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODY</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Odyssey</v>
       </c>
       <c r="H41">
         <v>68658.899999999994</v>
@@ -1980,16 +2173,20 @@
         <v>75</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HO</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Honda</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODY</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Odyssey</v>
       </c>
       <c r="H42">
         <v>3708.1</v>
@@ -2009,16 +2206,20 @@
         <v>76</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CR</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Chrysler</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PTC</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>PT</v>
       </c>
       <c r="H43">
         <v>64542</v>
@@ -2038,16 +2239,20 @@
         <v>77</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CR</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Chrysler</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PTC</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>PT</v>
       </c>
       <c r="H44">
         <v>42074.2</v>
@@ -2067,16 +2272,20 @@
         <v>78</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CR</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Chrysler</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PTC</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>PT</v>
       </c>
       <c r="H45">
         <v>27394.2</v>
@@ -2096,16 +2305,20 @@
         <v>79</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CR</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Chrysler</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CAR</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Caravan</v>
       </c>
       <c r="H46">
         <v>79420.600000000006</v>
@@ -2125,16 +2338,20 @@
         <v>80</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CR</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Chrysler</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CAR</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Caravan</v>
       </c>
       <c r="H47">
         <v>77243.100000000006</v>
@@ -2154,16 +2371,20 @@
         <v>81</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CR</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Chrysler</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CAR</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Caravan</v>
       </c>
       <c r="H48">
         <v>72527.199999999997</v>
@@ -2183,16 +2404,20 @@
         <v>82</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CR</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Chrysler</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CAR</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Caravan</v>
       </c>
       <c r="H49">
         <v>52699.4</v>
@@ -2212,16 +2437,20 @@
         <v>83</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HY</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Hundai</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ELA</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Elantra</v>
       </c>
       <c r="H50">
         <v>29102.3</v>
@@ -2241,16 +2470,20 @@
         <v>84</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HY</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Hundai</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ELA</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Elantra</v>
       </c>
       <c r="H51">
         <v>22282</v>
@@ -2270,16 +2503,20 @@
         <v>85</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HY</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Hundai</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ELA</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Elantra</v>
       </c>
       <c r="H52">
         <v>20223.900000000001</v>
@@ -2299,16 +2536,20 @@
         <v>86</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HY</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Hundai</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ELA</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Elantra</v>
       </c>
       <c r="H53">
         <v>22188.5</v>
@@ -2331,7 +2572,10 @@
         <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="E57" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2342,7 +2586,10 @@
         <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2353,7 +2600,10 @@
         <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2366,6 +2616,9 @@
       <c r="D60" t="s">
         <v>108</v>
       </c>
+      <c r="E60" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
@@ -2377,6 +2630,9 @@
       <c r="D61" t="s">
         <v>106</v>
       </c>
+      <c r="E61" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
@@ -2386,37 +2642,55 @@
         <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="E62" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="E63" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>99</v>
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B57:C62">
-    <sortCondition ref="B57:B62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D57:E67">
+    <sortCondition ref="D57:D67"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
